--- a/Excel/GuidanceConfig@cs.xlsx
+++ b/Excel/GuidanceConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEDFCD9-A7F6-4141-A82A-43985976FE2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAE3B01-C817-4B49-AC89-CDF24957E7E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>是否所有玩家共享（关键步骤配此字段生效）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UISettingView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click_Setting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel/Language/English</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter_Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel/Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open_UISettingView</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,9 +295,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -285,7 +306,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:Q14"/>
+  <dimension ref="C2:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -616,7 +646,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -630,7 +660,7 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -648,22 +678,22 @@
       <c r="K3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -758,109 +788,234 @@
       </c>
     </row>
     <row r="6" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="13">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="13">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
